--- a/documents/外部設計/画面遷移図_D2.xlsx
+++ b/documents/外部設計/画面遷移図_D2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B8DE03-2787-4E84-A328-82DFE609E4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3ABAE1-C7F1-4445-B767-BF2920361BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,77 +215,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20410</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>59874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="テキスト ボックス 209">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3139E9FC-FD65-40A7-A792-AE7613A30201}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9178017" y="1949906"/>
-          <a:ext cx="1571625" cy="327932"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>履歴画面にリダイレクト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1361</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -413,73 +342,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129268</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>506185</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127908</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="テキスト ボックス 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7530BE-6BC5-4488-AA40-C746C26DFD4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12008304" y="2371726"/>
-          <a:ext cx="1057274" cy="327932"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>229959</xdr:colOff>
       <xdr:row>35</xdr:row>
@@ -623,15 +485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4084</xdr:rowOff>
+      <xdr:colOff>591910</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>125185</xdr:colOff>
+      <xdr:colOff>288470</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>155123</xdr:rowOff>
+      <xdr:rowOff>73481</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -646,7 +508,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9586232" y="3283405"/>
+          <a:off x="9749517" y="3201763"/>
           <a:ext cx="1057274" cy="327932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,16 +555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>249011</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>625928</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -717,7 +579,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8726261" y="2654755"/>
+          <a:off x="7882619" y="2042434"/>
           <a:ext cx="1057274" cy="327932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1048,16 +910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>317045</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>208188</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462641</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1072,8 +934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8794295" y="232682"/>
-          <a:ext cx="934811" cy="502104"/>
+          <a:off x="5964009" y="503464"/>
+          <a:ext cx="934811" cy="312965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,14 +971,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録画面に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リダイレクト</a:t>
+            <a:t>登録成功時</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1126,16 +981,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126545</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>164647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289830</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1150,7 +1005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8603795" y="1321254"/>
+          <a:off x="8086723" y="532039"/>
           <a:ext cx="1247776" cy="506186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1187,7 +1042,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>入力内容が不正</a:t>
+            <a:t>登録失敗時リダイレクト</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1845,9 +1700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143676</xdr:colOff>
+      <xdr:colOff>299358</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>176813</xdr:rowOff>
+      <xdr:rowOff>167288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1863,7 +1718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6991672" y="1352470"/>
-          <a:ext cx="1629254" cy="511629"/>
+          <a:ext cx="1784936" cy="502104"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2145,133 +2000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>677958</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1335650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29364</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>18970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266140</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>167288</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB45048-9DDF-4D4C-B42C-1B073C09EE5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9835565" y="1352470"/>
-          <a:ext cx="1629254" cy="502104"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>登録失敗画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>148318</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63953</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63953</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1243868E-FB50-4C9C-BA12-B8A43D4629CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8625568" y="1574346"/>
-          <a:ext cx="1171574" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15756</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>138221</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25320</xdr:rowOff>
+      <xdr:rowOff>11712</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2283,75 +2021,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="0"/>
-          <a:endCxn id="78" idx="0"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="9228246" y="-69477"/>
+          <a:off x="6397961" y="-83085"/>
           <a:ext cx="12700" cy="2843893"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 5550000"/>
+            <a:gd name="adj1" fmla="val 3621409"/>
           </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>149849</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B6DED0-2894-4F8B-BF52-A6680D09B56F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10668000" y="3170466"/>
-          <a:ext cx="170" cy="408213"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -2436,15 +2117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>148318</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>159203</xdr:rowOff>
+      <xdr:colOff>93890</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>159203</xdr:rowOff>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131988</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2459,7 +2140,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8625568" y="2907846"/>
+          <a:off x="8571140" y="4295774"/>
           <a:ext cx="1171574" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2491,77 +2172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>650745</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238927</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C896BD9-F234-4E8F-B51F-44BEF3B4306B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9808352" y="2673963"/>
-          <a:ext cx="1629254" cy="511628"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>質問削除画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
+      <xdr:colOff>503464</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2577,13 +2197,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8681357" y="3578679"/>
-          <a:ext cx="1986643" cy="721179"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8382001" y="3034393"/>
+          <a:ext cx="1809750" cy="748391"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 102632"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -2972,13 +2592,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>662550</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>102213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238927</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4241</xdr:rowOff>
+      <xdr:rowOff>102214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157284</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167528</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2991,19 +2611,79 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="134" idx="3"/>
           <a:endCxn id="80" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7779086" y="2673963"/>
-          <a:ext cx="3658520" cy="255814"/>
+        <a:xfrm rot="10800000">
+          <a:off x="7779086" y="2673964"/>
+          <a:ext cx="855448" cy="242207"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -6248"/>
-            <a:gd name="adj2" fmla="val 285107"/>
+            <a:gd name="adj1" fmla="val -31018"/>
+            <a:gd name="adj2" fmla="val 194382"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338376</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD6C12C-3BF8-421C-992D-8A6E4637CFB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7960178" y="1333500"/>
+          <a:ext cx="855448" cy="242207"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31018"/>
+            <a:gd name="adj2" fmla="val 194382"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -3732,7 +3412,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/外部設計/画面遷移図_D2.xlsx
+++ b/documents/外部設計/画面遷移図_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3ABAE1-C7F1-4445-B767-BF2920361BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFAC347-CE83-45E4-8B3A-6ABA3A7293C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,15 +485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>591910</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99334</xdr:rowOff>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288470</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>73481</xdr:rowOff>
+      <xdr:colOff>234042</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -508,7 +508,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9749517" y="3201763"/>
+          <a:off x="9695089" y="2984048"/>
           <a:ext cx="1057274" cy="327932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1053,85 +1053,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>80283</xdr:colOff>
+      <xdr:colOff>1250496</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1088571</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="テキスト ボックス 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F055FFD1-364D-40FC-9386-F3D77BA7F1FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="80283" y="2050596"/>
-          <a:ext cx="1008288" cy="506186"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン画面にリダイレクト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>774246</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>77561</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>745671</xdr:colOff>
+      <xdr:colOff>922564</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>53068</xdr:rowOff>
+      <xdr:rowOff>121103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1146,7 +1076,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189389" y="2118632"/>
+          <a:off x="1250496" y="2186667"/>
           <a:ext cx="1087211" cy="506186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1274,65 +1204,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>804182</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>804186</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C436B9-F217-4BD8-BDBB-3ED40F653D48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1181102" y="2162173"/>
-          <a:ext cx="1314450" cy="4"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1510,16 +1381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1381126</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
+      <xdr:colOff>848405</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1531,18 +1402,20 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="2" idx="1"/>
-          <a:endCxn id="58" idx="1"/>
+          <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1381126" y="1608365"/>
-          <a:ext cx="176893" cy="1510392"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="1558017" y="1608365"/>
+          <a:ext cx="705531" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 290770"/>
+            <a:gd name="adj1" fmla="val -32401"/>
+            <a:gd name="adj2" fmla="val 189362"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -1628,67 +1501,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C519B2-CC36-4DCF-B763-02ADDED24298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="2862943"/>
-          <a:ext cx="1626053" cy="511628"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ログイン失敗画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3412,7 +3224,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/外部設計/画面遷移図_D2.xlsx
+++ b/documents/外部設計/画面遷移図_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFAC347-CE83-45E4-8B3A-6ABA3A7293C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB285D21-C075-4199-AF9B-6B428F9D1697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -88,12 +88,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※検索・登録・履歴画面にはヘッダーから遷移できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +117,30 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -175,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +220,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,15 +522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>537482</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>58512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>234042</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>32659</xdr:rowOff>
+      <xdr:rowOff>99334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>424541</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -508,7 +545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9695089" y="2984048"/>
+          <a:off x="9205231" y="3378655"/>
           <a:ext cx="1057274" cy="327932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2514,6 +2551,61 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CE26C2-842D-4FC9-BE82-351A49EEA6ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8899071" y="2925537"/>
+          <a:ext cx="2771658" cy="1149961"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3221,11 +3313,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3234,7 +3324,7 @@
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3246,7 +3336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3258,21 +3348,33 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="3:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C27" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/documents/外部設計/画面遷移図_D2.xlsx
+++ b/documents/外部設計/画面遷移図_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB285D21-C075-4199-AF9B-6B428F9D1697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC74C7A-E38C-47A3-8FAE-1C518CF74196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>※検索・登録・履歴画面にはヘッダーから遷移できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3315,7 +3319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3354,6 +3360,9 @@
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">

--- a/documents/外部設計/画面遷移図_D2.xlsx
+++ b/documents/外部設計/画面遷移図_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC74C7A-E38C-47A3-8FAE-1C518CF74196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A962F-F28D-438F-A97B-699AE5B37183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -89,11 +89,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※検索・登録・履歴画面にはヘッダーから遷移できる</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>※ナビゲーションに「検索」「登録」「履歴」「ログアウト」を設置</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ロゴからも検索画面に戻れる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※質問更新画面/回答更新画面で更新内容を記入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※質問「回答」の登録は「質問内容表示画面」からできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（テキストエリアと回答ボタンを設置）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -101,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +172,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -207,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +269,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3317,11 +3356,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3361,7 +3398,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -3381,9 +3418,29 @@
     <row r="26" spans="3:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="3:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="8" t="s">
-        <v>8</v>
+    <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C30" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C31" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
